--- a/fuentes/contenidos/grado10/guion04/Escaleta_LE_10_04.xlsx
+++ b/fuentes/contenidos/grado10/guion04/Escaleta_LE_10_04.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="12998"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="271">
   <si>
     <t>Asignatura</t>
   </si>
@@ -483,9 +488,6 @@
   </si>
   <si>
     <t>El multiculturalismo</t>
-  </si>
-  <si>
-    <t>LE_10_04</t>
   </si>
   <si>
     <t xml:space="preserve">La literatura española de la Ilustración, el Romanticismo y el Realismo </t>
@@ -842,6 +844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>aprovechado</t>
@@ -856,6 +859,12 @@
       </rPr>
       <t>. Se trata de "La prosa romántica" en "La literatura romántica". Revisar expresiones, descartar las fichas, cambiar titulo, etc.</t>
     </r>
+  </si>
+  <si>
+    <t>LE_10_04_CO</t>
+  </si>
+  <si>
+    <t>M5b</t>
   </si>
 </sst>
 </file>
@@ -904,6 +913,7 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -926,6 +936,7 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,6 +944,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1513,16 +1525,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,24 +1592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,7 +1818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1841,7 +1853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2052,17 +2064,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" customWidth="1"/>
@@ -2070,126 +2082,126 @@
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="17.46484375" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.46484375" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="R1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
-    </row>
-    <row r="3" spans="1:21" ht="29" thickTop="1">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="51">
         <v>1</v>
@@ -2198,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>19</v>
@@ -2209,7 +2221,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>19</v>
@@ -2218,37 +2230,37 @@
         <v>10</v>
       </c>
       <c r="R3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="T3" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="U3" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="70">
+    </row>
+    <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="52">
         <v>2</v>
@@ -2257,7 +2269,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -2270,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" s="50" t="s">
         <v>19</v>
@@ -2285,31 +2297,31 @@
         <v>124</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28">
+    <row r="5" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="D5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="52">
         <v>3</v>
@@ -2318,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -2331,7 +2343,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="50" t="s">
         <v>19</v>
@@ -2346,31 +2358,31 @@
         <v>124</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="28">
+    <row r="6" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="52">
         <v>4</v>
@@ -2379,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -2392,7 +2404,7 @@
         <v>33</v>
       </c>
       <c r="O6" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>19</v>
@@ -2407,31 +2419,31 @@
         <v>124</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="126">
+    <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="52">
         <v>5</v>
@@ -2440,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -2453,7 +2465,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P7" s="50" t="s">
         <v>19</v>
@@ -2468,31 +2480,31 @@
         <v>124</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28">
+    <row r="8" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="52">
         <v>6</v>
@@ -2501,7 +2513,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -2512,7 +2524,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
@@ -2521,37 +2533,37 @@
         <v>10</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="T8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="84">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="52">
         <v>7</v>
@@ -2560,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -2573,7 +2585,7 @@
         <v>34</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P9" s="50" t="s">
         <v>19</v>
@@ -2588,33 +2600,33 @@
         <v>124</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28">
+    <row r="10" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="52">
         <v>8</v>
@@ -2623,7 +2635,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2634,7 +2646,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2643,39 +2655,39 @@
         <v>10</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="28">
+    </row>
+    <row r="11" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="G11" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="52">
         <v>9</v>
@@ -2684,7 +2696,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2695,7 +2707,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" s="50" t="s">
         <v>19</v>
@@ -2704,37 +2716,37 @@
         <v>10</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="T11" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="70">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12" s="52">
         <v>10</v>
@@ -2743,7 +2755,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2756,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P12" s="50" t="s">
         <v>19</v>
@@ -2771,29 +2783,29 @@
         <v>124</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="42">
+    <row r="13" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" s="52">
         <v>11</v>
@@ -2802,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2815,7 +2827,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P13" s="50" t="s">
         <v>19</v>
@@ -2830,29 +2842,29 @@
         <v>144</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="42">
+    <row r="14" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="52">
         <v>12</v>
@@ -2861,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2872,7 +2884,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P14" s="50" t="s">
         <v>19</v>
@@ -2881,37 +2893,37 @@
         <v>8</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="U14" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="28">
+    </row>
+    <row r="15" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="57" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" s="52">
         <v>13</v>
@@ -2920,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2933,7 +2945,7 @@
         <v>121</v>
       </c>
       <c r="O15" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P15" s="50" t="s">
         <v>19</v>
@@ -2948,31 +2960,31 @@
         <v>124</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="126">
+    <row r="16" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="52">
         <v>14</v>
@@ -2981,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2994,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P16" s="50" t="s">
         <v>19</v>
@@ -3009,31 +3021,31 @@
         <v>124</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="56">
+    <row r="17" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="52">
         <v>15</v>
@@ -3042,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -3055,7 +3067,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P17" s="50" t="s">
         <v>19</v>
@@ -3070,31 +3082,31 @@
         <v>144</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="28">
+    <row r="18" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H18" s="52">
         <v>16</v>
@@ -3103,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -3116,7 +3128,7 @@
         <v>121</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P18" s="50" t="s">
         <v>19</v>
@@ -3131,33 +3143,33 @@
         <v>124</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="70">
+    <row r="19" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="H19" s="52">
         <v>17</v>
@@ -3166,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -3179,7 +3191,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P19" s="50" t="s">
         <v>19</v>
@@ -3194,33 +3206,33 @@
         <v>144</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="84">
+    <row r="20" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="G20" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H20" s="52">
         <v>18</v>
@@ -3229,7 +3241,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -3239,10 +3251,10 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P20" s="50" t="s">
         <v>19</v>
@@ -3257,31 +3269,31 @@
         <v>124</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="42">
+    <row r="21" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H21" s="52">
         <v>19</v>
@@ -3290,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -3303,7 +3315,7 @@
         <v>121</v>
       </c>
       <c r="O21" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P21" s="50" t="s">
         <v>19</v>
@@ -3324,12 +3336,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="56">
+    <row r="22" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>131</v>
@@ -3337,9 +3349,7 @@
       <c r="D22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
         <v>152</v>
@@ -3385,12 +3395,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="84">
+    <row r="23" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>131</v>
@@ -3399,7 +3409,7 @@
         <v>130</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
@@ -3425,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="O23" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P23" s="50" t="s">
         <v>19</v>
@@ -3440,18 +3450,18 @@
         <v>124</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="126">
+    <row r="24" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>131</v>
@@ -3464,7 +3474,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H24" s="52">
         <v>22</v>
@@ -3507,23 +3517,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70">
+    <row r="25" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H25" s="52">
         <v>23</v>
@@ -3532,7 +3542,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3545,7 +3555,7 @@
         <v>120</v>
       </c>
       <c r="O25" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P25" s="50" t="s">
         <v>19</v>
@@ -3560,24 +3570,24 @@
         <v>124</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
@@ -3591,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3611,23 +3621,23 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H27" s="52">
         <v>25</v>
@@ -3636,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3649,7 +3659,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P27" s="50" t="s">
         <v>19</v>
@@ -3664,24 +3674,24 @@
         <v>124</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="84">
+    <row r="28" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
@@ -3693,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3706,7 +3716,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P28" s="50" t="s">
         <v>20</v>
@@ -3721,13 +3731,13 @@
         <v>124</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -3750,7 +3760,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3773,7 +3783,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3796,7 +3806,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3819,7 +3829,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3842,7 +3852,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3865,7 +3875,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3888,7 +3898,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3911,7 +3921,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3934,7 +3944,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3957,7 +3967,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3980,7 +3990,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -4003,7 +4013,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -4026,7 +4036,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -4049,7 +4059,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -4072,7 +4082,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -4095,7 +4105,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -4118,7 +4128,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4141,7 +4151,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4164,7 +4174,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4187,7 +4197,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4210,7 +4220,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4233,7 +4243,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4256,7 +4266,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4279,7 +4289,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4302,7 +4312,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4325,7 +4335,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4348,7 +4358,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4371,7 +4381,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4394,7 +4404,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4417,7 +4427,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4440,7 +4450,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4463,7 +4473,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4486,7 +4496,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4509,7 +4519,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4532,7 +4542,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4555,7 +4565,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4578,7 +4588,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4601,7 +4611,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4624,7 +4634,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4647,368 +4657,192 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1">
+    <row r="83" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1">
+    <row r="84" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="85" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="87" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1"/>
-    <row r="121" spans="1:1" hidden="1"/>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" spans="1:21" hidden="1"/>
-    <row r="274" spans="1:21" hidden="1"/>
-    <row r="275" spans="1:21" hidden="1"/>
-    <row r="276" spans="1:21" hidden="1"/>
-    <row r="277" spans="1:21" hidden="1"/>
-    <row r="278" spans="1:21" hidden="1"/>
-    <row r="279" spans="1:21" hidden="1"/>
-    <row r="280" spans="1:21" hidden="1"/>
-    <row r="281" spans="1:21" hidden="1"/>
-    <row r="282" spans="1:21" hidden="1"/>
-    <row r="283" spans="1:21" hidden="1"/>
-    <row r="284" spans="1:21" hidden="1"/>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="44" t="s">
         <v>133</v>
       </c>
@@ -5067,7 +4901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="44" t="s">
         <v>133</v>
       </c>
@@ -5126,7 +4960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="44" t="s">
         <v>133</v>
       </c>
@@ -5187,7 +5021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F288"/>
       <c r="H288"/>
       <c r="I288"/>
@@ -5200,12 +5034,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5220,6 +5048,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5273,27 +5107,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="2"/>
     <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.796875" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5310,7 +5144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5334,7 +5168,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5353,7 +5187,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5372,7 +5206,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5388,7 +5222,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +5239,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5256,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5437,7 +5271,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5452,7 +5286,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5467,7 +5301,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5482,7 +5316,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5497,7 +5331,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5512,7 +5346,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5527,7 +5361,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5542,7 +5376,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5557,7 +5391,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5571,7 +5405,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5585,7 +5419,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5599,7 +5433,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5613,7 +5447,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5628,7 +5462,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5643,7 +5477,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5658,7 +5492,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5673,7 +5507,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5688,7 +5522,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5703,7 +5537,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5718,7 +5552,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5733,7 +5567,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5748,7 +5582,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5763,7 +5597,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5778,7 +5612,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5793,7 +5627,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5808,7 +5642,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5823,7 +5657,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5838,7 +5672,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5853,7 +5687,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5868,7 +5702,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5883,7 +5717,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5898,7 +5732,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5913,7 +5747,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5928,7 +5762,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5943,7 +5777,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5958,7 +5792,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5973,7 +5807,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5988,7 +5822,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6003,7 +5837,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6018,7 +5852,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6033,7 +5867,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6045,7 +5879,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6057,7 +5891,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6070,7 +5904,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6083,7 +5917,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6096,7 +5930,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6109,7 +5943,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6122,7 +5956,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6135,7 +5969,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6148,7 +5982,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6161,7 +5995,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6174,7 +6008,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6187,7 +6021,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6200,7 +6034,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6213,7 +6047,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6226,7 +6060,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6239,7 +6073,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6252,7 +6086,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6265,7 +6099,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6278,7 +6112,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6291,7 +6125,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6304,7 +6138,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6317,7 +6151,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6331,7 +6165,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6345,7 +6179,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6359,7 +6193,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6373,7 +6207,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6387,7 +6221,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6401,7 +6235,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6415,7 +6249,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6429,7 +6263,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6443,7 +6277,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6457,7 +6291,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6471,7 +6305,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6485,7 +6319,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6499,7 +6333,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6513,7 +6347,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6527,7 +6361,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6541,7 +6375,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6555,7 +6389,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6569,7 +6403,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6583,7 +6417,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6597,7 +6431,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6611,7 +6445,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6625,7 +6459,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6639,7 +6473,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6653,7 +6487,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6667,7 +6501,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6681,7 +6515,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6695,7 +6529,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6709,7 +6543,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6723,7 +6557,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6737,7 +6571,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6751,7 +6585,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6765,7 +6599,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6779,7 +6613,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6793,7 +6627,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6807,7 +6641,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6821,7 +6655,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6835,7 +6669,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6849,7 +6683,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6863,7 +6697,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6877,7 +6711,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6891,7 +6725,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6905,7 +6739,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6919,7 +6753,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6933,7 +6767,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6947,7 +6781,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6961,7 +6795,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6975,7 +6809,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6989,7 +6823,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7003,7 +6837,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7017,7 +6851,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7031,7 +6865,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7045,7 +6879,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7059,7 +6893,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7073,7 +6907,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7087,7 +6921,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7101,7 +6935,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7115,7 +6949,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7129,7 +6963,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7143,7 +6977,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7157,7 +6991,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7171,7 +7005,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7185,7 +7019,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion04/Escaleta_LE_10_04.xlsx
+++ b/fuentes/contenidos/grado10/guion04/Escaleta_LE_10_04.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="12998"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -778,15 +773,9 @@
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t>Proyecto: investiga sobre la prosa del Romanticismo español</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Actividad para estudiar un fragmento de Mariano José Larra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mapa conceptual del tema La literatura española de la Ilustración, el Romanticismo y el Realismo </t>
   </si>
   <si>
@@ -835,43 +824,26 @@
     <t>(DBA: 6) Diseñar preguntas de respuesta libre sobre el cine y sus elementos, específicos y no específicos.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(DBA: 7) Proyecto. El recurso F a insertar es </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aprovechado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Se trata de "La prosa romántica" en "La literatura romántica". Revisar expresiones, descartar las fichas, cambiar titulo, etc.</t>
-    </r>
-  </si>
-  <si>
     <t>LE_10_04_CO</t>
   </si>
   <si>
     <t>M5b</t>
+  </si>
+  <si>
+    <t>Proyecto: ¿Romanticismo o Realismo?</t>
+  </si>
+  <si>
+    <t>Actividad para pronunciar un discurso sobre estas etapas de la literatura española</t>
+  </si>
+  <si>
+    <t>(DBA: 7) Proyecto. Seguir las pestañas de proyectos: Introducción, Tarea, Proceso y Conclusión. Diseñar interactivo que oriente a los estudiantes en la pronunciación de un discurso a favor del Romanticismo o el Realismo como movimientos literarios y sustententen sus opiniones con argumentos. La pregunta en torno a la cual girarían los discursos puede ser: "¿Qué es más digno de ser representado literariamente: la imaginación subjetiva romántica o la exterioridad realista?"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,14 +907,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1525,34 +1489,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,6 +1538,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1853,7 +1817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2064,17 +2028,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" customWidth="1"/>
@@ -2082,113 +2046,113 @@
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.46484375" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="58" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="75" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="71"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="73"/>
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="11.75" customHeight="1" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
-    </row>
-    <row r="3" spans="1:21" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:21" ht="14" customHeight="1" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>153</v>
@@ -2221,7 +2185,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>19</v>
@@ -2242,12 +2206,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="14" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>153</v>
@@ -2303,12 +2267,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="14" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>153</v>
@@ -2343,7 +2307,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P5" s="50" t="s">
         <v>19</v>
@@ -2364,12 +2328,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" ht="14" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>153</v>
@@ -2404,7 +2368,7 @@
         <v>33</v>
       </c>
       <c r="O6" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>19</v>
@@ -2425,12 +2389,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="14" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>153</v>
@@ -2486,12 +2450,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" ht="14" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>153</v>
@@ -2524,7 +2488,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>19</v>
@@ -2545,12 +2509,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="14" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>153</v>
@@ -2585,7 +2549,7 @@
         <v>34</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P9" s="50" t="s">
         <v>19</v>
@@ -2606,12 +2570,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="14" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>153</v>
@@ -2646,7 +2610,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P10" s="50" t="s">
         <v>19</v>
@@ -2667,12 +2631,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" ht="14" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>153</v>
@@ -2707,7 +2671,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P11" s="50" t="s">
         <v>19</v>
@@ -2728,12 +2692,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" ht="14" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>153</v>
@@ -2768,7 +2732,7 @@
         <v>121</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P12" s="50" t="s">
         <v>19</v>
@@ -2789,12 +2753,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="14" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>153</v>
@@ -2848,12 +2812,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="14" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>153</v>
@@ -2905,12 +2869,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" ht="14" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>153</v>
@@ -2966,12 +2930,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" ht="14" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>153</v>
@@ -3006,7 +2970,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P16" s="50" t="s">
         <v>19</v>
@@ -3027,12 +2991,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="14" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>153</v>
@@ -3067,7 +3031,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P17" s="50" t="s">
         <v>19</v>
@@ -3088,12 +3052,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="14" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>153</v>
@@ -3128,7 +3092,7 @@
         <v>121</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P18" s="50" t="s">
         <v>19</v>
@@ -3149,12 +3113,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" ht="14" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>153</v>
@@ -3212,12 +3176,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="14" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>153</v>
@@ -3251,7 +3215,7 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O20" s="54" t="s">
         <v>237</v>
@@ -3275,12 +3239,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="14" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>153</v>
@@ -3315,7 +3279,7 @@
         <v>121</v>
       </c>
       <c r="O21" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P21" s="50" t="s">
         <v>19</v>
@@ -3336,12 +3300,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="14" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>131</v>
@@ -3395,12 +3359,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="14" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>131</v>
@@ -3456,12 +3420,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" ht="14" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>131</v>
@@ -3517,12 +3481,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="14" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>131</v>
@@ -3533,7 +3497,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H25" s="52">
         <v>23</v>
@@ -3542,7 +3506,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3555,7 +3519,7 @@
         <v>120</v>
       </c>
       <c r="O25" s="54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P25" s="50" t="s">
         <v>19</v>
@@ -3570,18 +3534,18 @@
         <v>124</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="14" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>131</v>
@@ -3601,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3621,12 +3585,12 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="14" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>131</v>
@@ -3646,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3680,12 +3644,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" ht="14" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>131</v>
@@ -3703,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3716,7 +3680,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P28" s="50" t="s">
         <v>20</v>
@@ -3737,7 +3701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" ht="11.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -3760,7 +3724,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" ht="11.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3783,7 +3747,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" ht="11.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3806,7 +3770,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="11.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3829,7 +3793,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="11.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3852,7 +3816,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" ht="11.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3875,7 +3839,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" ht="11.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3898,7 +3862,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" ht="11.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3921,7 +3885,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" ht="11.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3944,7 +3908,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="11.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3967,7 +3931,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" ht="11.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3990,7 +3954,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="11.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -4013,7 +3977,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="11.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -4036,7 +4000,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" ht="11.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -4059,7 +4023,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" ht="11.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -4082,7 +4046,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" ht="11.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -4105,7 +4069,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="11.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -4128,7 +4092,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" ht="11.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4151,7 +4115,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" ht="11.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4174,7 +4138,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" ht="11.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4197,7 +4161,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" ht="11.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4220,7 +4184,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:21" ht="11.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4243,7 +4207,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:21" ht="11.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4266,7 +4230,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" ht="11.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4289,7 +4253,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" ht="11.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4312,7 +4276,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" ht="11.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4335,7 +4299,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" ht="11.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4358,7 +4322,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:21" ht="11.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4381,7 +4345,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:21" ht="11.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4404,7 +4368,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" ht="11.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4427,7 +4391,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:21" ht="11.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4450,7 +4414,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" ht="11.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4473,7 +4437,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:21" ht="11.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4496,7 +4460,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" ht="11.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4519,7 +4483,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:21" ht="11.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4542,7 +4506,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" ht="11.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4565,7 +4529,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:21" ht="11.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4588,7 +4552,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="11.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4611,7 +4575,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="11.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4634,7 +4598,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:21" ht="11.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4657,192 +4621,192 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="83" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="11.75" customHeight="1">
       <c r="A83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="11.75" customHeight="1">
       <c r="A84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="11.75" customHeight="1">
       <c r="A85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="11.75" customHeight="1">
       <c r="A86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="11.75" customHeight="1">
       <c r="A87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="11.75" customHeight="1">
       <c r="A88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="11.75" customHeight="1">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="11.75" customHeight="1">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="11.75" customHeight="1">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="11.75" customHeight="1">
       <c r="A92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="11.75" customHeight="1">
       <c r="A93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="11.75" customHeight="1">
       <c r="A94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="11.75" customHeight="1">
       <c r="A95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="11.75" customHeight="1">
       <c r="A96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="11.75" customHeight="1">
       <c r="A97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="11.75" customHeight="1">
       <c r="A98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="11.75" customHeight="1">
       <c r="A99" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="11.75" customHeight="1">
       <c r="A100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="11.75" customHeight="1">
       <c r="A101" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="11.75" customHeight="1">
       <c r="A102" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="11.75" customHeight="1">
       <c r="A103" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="11.75" customHeight="1">
       <c r="A104" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="11.75" customHeight="1">
       <c r="A105" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="11.75" customHeight="1">
       <c r="A106" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="11.75" customHeight="1">
       <c r="A107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="11.75" customHeight="1">
       <c r="A108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="11.75" customHeight="1">
       <c r="A109" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="11.75" customHeight="1">
       <c r="A110" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="11.75" customHeight="1">
       <c r="A111" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="11.75" customHeight="1">
       <c r="A112" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="11.75" customHeight="1">
       <c r="A113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="11.75" customHeight="1">
       <c r="A114" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="11.75" customHeight="1">
       <c r="A115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="11.75" customHeight="1">
       <c r="A116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="11.75" customHeight="1">
       <c r="A117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="11.75" customHeight="1">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="11.75" customHeight="1">
       <c r="A119" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" ht="11.75" customHeight="1">
       <c r="A285" s="44" t="s">
         <v>133</v>
       </c>
@@ -4901,7 +4865,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" ht="11.75" customHeight="1">
       <c r="A286" s="44" t="s">
         <v>133</v>
       </c>
@@ -4960,7 +4924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" ht="11.75" customHeight="1">
       <c r="A287" s="44" t="s">
         <v>133</v>
       </c>
@@ -5021,7 +4985,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" ht="11.75" customHeight="1">
       <c r="F288"/>
       <c r="H288"/>
       <c r="I288"/>
@@ -5034,6 +4998,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5048,15 +5018,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -5107,27 +5070,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="2"/>
     <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.796875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5144,7 +5107,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5168,7 +5131,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5150,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5206,7 +5169,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5222,7 +5185,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5239,7 +5202,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5256,7 +5219,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5271,7 +5234,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5286,7 +5249,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5301,7 +5264,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5316,7 +5279,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5331,7 +5294,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5346,7 +5309,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5361,7 +5324,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5376,7 +5339,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5391,7 +5354,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5405,7 +5368,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5419,7 +5382,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5433,7 +5396,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5447,7 +5410,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5462,7 +5425,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5477,7 +5440,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5492,7 +5455,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5507,7 +5470,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5522,7 +5485,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5537,7 +5500,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5552,7 +5515,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5567,7 +5530,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5582,7 +5545,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5597,7 +5560,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5612,7 +5575,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5627,7 +5590,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5642,7 +5605,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5657,7 +5620,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5672,7 +5635,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5687,7 +5650,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5702,7 +5665,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5717,7 +5680,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5732,7 +5695,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5747,7 +5710,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5762,7 +5725,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5777,7 +5740,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5792,7 +5755,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5807,7 +5770,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5822,7 +5785,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5837,7 +5800,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5852,7 +5815,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5867,7 +5830,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5879,7 +5842,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5891,7 +5854,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5904,7 +5867,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5917,7 +5880,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5930,7 +5893,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5943,7 +5906,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5956,7 +5919,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5969,7 +5932,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5982,7 +5945,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5995,7 +5958,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6008,7 +5971,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6021,7 +5984,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6034,7 +5997,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6047,7 +6010,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6060,7 +6023,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6073,7 +6036,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6086,7 +6049,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6099,7 +6062,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6112,7 +6075,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6125,7 +6088,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6138,7 +6101,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6151,7 +6114,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6165,7 +6128,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6179,7 +6142,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6193,7 +6156,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6207,7 +6170,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6221,7 +6184,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6235,7 +6198,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6249,7 +6212,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6263,7 +6226,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6277,7 +6240,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6291,7 +6254,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6305,7 +6268,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6319,7 +6282,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6333,7 +6296,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6347,7 +6310,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6361,7 +6324,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6375,7 +6338,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6389,7 +6352,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6403,7 +6366,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6417,7 +6380,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6431,7 +6394,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6445,7 +6408,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6459,7 +6422,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6473,7 +6436,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6487,7 +6450,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6501,7 +6464,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6515,7 +6478,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6529,7 +6492,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6543,7 +6506,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6557,7 +6520,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6571,7 +6534,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6585,7 +6548,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6599,7 +6562,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6613,7 +6576,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6627,7 +6590,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6641,7 +6604,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6655,7 +6618,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6669,7 +6632,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6683,7 +6646,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6697,7 +6660,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6711,7 +6674,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6725,7 +6688,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6739,7 +6702,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6753,7 +6716,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6767,7 +6730,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6781,7 +6744,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6795,7 +6758,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6809,7 +6772,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6823,7 +6786,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6837,7 +6800,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6851,7 +6814,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6865,7 +6828,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6879,7 +6842,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6893,7 +6856,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6907,7 +6870,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6921,7 +6884,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6935,7 +6898,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6949,7 +6912,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6963,7 +6926,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6977,7 +6940,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6991,7 +6954,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7005,7 +6968,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7019,7 +6982,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
